--- a/tests/testdata/TestCaseTemplate.xlsx
+++ b/tests/testdata/TestCaseTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paupau/Desktop/Coding-Projects/Portfolio/Playwright/Use_TypeScript/tests/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C09015-F3C4-724D-A69E-87E6F371FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D6B00-860E-CB49-BB6F-55D3C4F5DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{5ABECB97-703F-484C-A426-ED4C7928EF9F}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>propertyType</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
   </si>
 </sst>
 </file>
@@ -421,18 +421,18 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -446,17 +446,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
